--- a/data/inst_4.xlsx
+++ b/data/inst_4.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://upm365-my.sharepoint.com/personal/marta_sierra_sanz_alumnos_upm_es/Documents/Escritorio/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TFG\flexible-vrp\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A53D7FF-3018-46ED-A8A8-DA8481E19B97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{590A9239-5A6B-4E9F-BBCA-8259E7A81B34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5A598FCB-B967-4DAF-9410-AD9F1FA49DAC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{5A598FCB-B967-4DAF-9410-AD9F1FA49DAC}"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="28">
   <si>
     <t>origin</t>
   </si>
@@ -787,8 +787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{118A7758-BA92-46A5-BE73-1AD0F0A01B68}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -817,7 +817,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -890,7 +890,7 @@
         <v>24</v>
       </c>
       <c r="B12" s="2">
-        <v>30</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1542,10 +1542,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E770ECA-E10C-4651-A068-F1B5FC905D1A}">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1614,7 +1614,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1636,337 +1636,57 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C7">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C8">
-        <v>11</v>
+        <v>322</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C9">
-        <v>38</v>
+        <v>218</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C10">
-        <v>103</v>
+        <v>823</v>
       </c>
       <c r="D10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11">
-        <v>4</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12">
-        <v>108</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13">
-        <v>10</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14">
-        <v>38</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15">
-        <v>31</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16">
-        <v>11</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17">
-        <v>24</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18">
-        <v>322</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19">
-        <v>218</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20">
-        <v>823</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21">
-        <v>3</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23">
-        <v>240</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24">
-        <v>220</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25">
-        <v>374</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>8</v>
-      </c>
-      <c r="B26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26">
-        <v>212</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>9</v>
-      </c>
-      <c r="B27" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27">
-        <v>176</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>9</v>
-      </c>
-      <c r="B28" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>9</v>
-      </c>
-      <c r="B29" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29">
-        <v>198</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>9</v>
-      </c>
-      <c r="B30" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30">
-        <v>488</v>
-      </c>
-      <c r="D30">
         <v>0</v>
       </c>
     </row>

--- a/data/inst_4.xlsx
+++ b/data/inst_4.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TFG\flexible-vrp\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\flexible-vrp\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{590A9239-5A6B-4E9F-BBCA-8259E7A81B34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F48950E9-4CBD-4801-AB6A-50770BAB8490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{5A598FCB-B967-4DAF-9410-AD9F1FA49DAC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{5A598FCB-B967-4DAF-9410-AD9F1FA49DAC}"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="28">
   <si>
     <t>origin</t>
   </si>
@@ -788,15 +788,15 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -804,7 +804,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -812,15 +812,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -828,7 +828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -836,7 +836,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -844,7 +844,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -852,7 +852,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -860,7 +860,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -868,7 +868,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -876,7 +876,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -885,12 +885,12 @@
         <v>17.857142857142858</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B12" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -906,9 +906,9 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -919,7 +919,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -930,7 +930,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -941,7 +941,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -952,7 +952,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -963,7 +963,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -974,7 +974,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -985,7 +985,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -996,7 +996,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1007,7 +1007,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1018,7 +1018,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1029,7 +1029,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1040,7 +1040,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1051,7 +1051,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -1062,7 +1062,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -1073,7 +1073,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -1084,7 +1084,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -1095,7 +1095,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -1106,7 +1106,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -1117,7 +1117,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -1128,7 +1128,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -1139,7 +1139,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -1150,7 +1150,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -1161,7 +1161,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -1172,7 +1172,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -1183,7 +1183,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -1194,7 +1194,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -1205,7 +1205,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -1216,7 +1216,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -1227,7 +1227,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -1238,7 +1238,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -1249,7 +1249,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -1260,7 +1260,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -1271,7 +1271,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -1282,7 +1282,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>7</v>
       </c>
@@ -1293,7 +1293,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -1304,7 +1304,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>3</v>
       </c>
@@ -1315,7 +1315,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>3</v>
       </c>
@@ -1326,7 +1326,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>3</v>
       </c>
@@ -1337,7 +1337,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>3</v>
       </c>
@@ -1348,7 +1348,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>3</v>
       </c>
@@ -1359,7 +1359,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>3</v>
       </c>
@@ -1370,7 +1370,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>3</v>
       </c>
@@ -1381,7 +1381,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>8</v>
       </c>
@@ -1392,7 +1392,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>8</v>
       </c>
@@ -1403,7 +1403,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>8</v>
       </c>
@@ -1414,7 +1414,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>8</v>
       </c>
@@ -1425,7 +1425,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>8</v>
       </c>
@@ -1436,7 +1436,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>8</v>
       </c>
@@ -1447,7 +1447,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>8</v>
       </c>
@@ -1458,7 +1458,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>9</v>
       </c>
@@ -1469,7 +1469,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>9</v>
       </c>
@@ -1480,7 +1480,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>9</v>
       </c>
@@ -1491,7 +1491,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>9</v>
       </c>
@@ -1502,7 +1502,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>9</v>
       </c>
@@ -1513,7 +1513,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>9</v>
       </c>
@@ -1524,7 +1524,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>9</v>
       </c>
@@ -1542,15 +1542,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E770ECA-E10C-4651-A068-F1B5FC905D1A}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1564,7 +1564,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1578,7 +1578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1592,7 +1592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1606,7 +1606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1614,83 +1614,228 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="D6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>24</v>
+        <v>322</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8">
-        <v>322</v>
+        <v>218</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9">
-        <v>218</v>
+        <v>823</v>
       </c>
       <c r="D9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10">
-        <v>823</v>
-      </c>
-      <c r="D10">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101004EB831025BF00641AE88F2A902AAAF1B" ma:contentTypeVersion="2" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="922787e71b43b1c3ae0f2ec30aa8cf0c">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a01b58d8-c5db-4160-879c-9baa1e9d5116" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="549c965bef73b0ff34fc7fce22a81277" ns2:_="">
+    <xsd:import namespace="a01b58d8-c5db-4160-879c-9baa1e9d5116"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="a01b58d8-c5db-4160-879c-9baa1e9d5116" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de contenido"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2589810-7BFA-47D4-83A1-6AC043710CE2}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4F665F3-1E57-4CCF-A68E-CA487352D404}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E555F8B-86CD-499D-908D-6C46A60A7E3A}"/>
 </file>
--- a/data/inst_4.xlsx
+++ b/data/inst_4.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\flexible-vrp\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TFG\flexible-vrp\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F48950E9-4CBD-4801-AB6A-50770BAB8490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14B1F971-81CF-4CC3-A50C-7A87C9C76E4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{5A598FCB-B967-4DAF-9410-AD9F1FA49DAC}"/>
+    <workbookView xWindow="0" yWindow="180" windowWidth="20490" windowHeight="10740" xr2:uid="{5A598FCB-B967-4DAF-9410-AD9F1FA49DAC}"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="3" r:id="rId1"/>
@@ -131,10 +131,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -166,10 +173,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -787,16 +795,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{118A7758-BA92-46A5-BE73-1AD0F0A01B68}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="F8:G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -804,7 +812,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -812,7 +820,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
@@ -820,7 +828,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -828,7 +836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -836,7 +844,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -844,7 +852,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -852,7 +860,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -860,7 +868,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -868,7 +876,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -876,7 +884,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -885,7 +893,7 @@
         <v>17.857142857142858</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
@@ -906,9 +914,9 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -919,7 +927,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -930,7 +938,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -941,7 +949,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -952,7 +960,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -963,7 +971,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -974,7 +982,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -985,7 +993,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -996,7 +1004,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1007,7 +1015,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1018,7 +1026,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1029,7 +1037,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1040,7 +1048,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1051,7 +1059,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -1062,7 +1070,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -1073,7 +1081,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -1084,7 +1092,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -1095,7 +1103,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -1106,7 +1114,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -1117,7 +1125,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -1128,7 +1136,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -1139,7 +1147,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -1150,7 +1158,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -1161,7 +1169,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -1172,7 +1180,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -1183,7 +1191,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -1194,7 +1202,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -1205,7 +1213,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -1216,7 +1224,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -1227,7 +1235,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -1238,7 +1246,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -1249,7 +1257,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -1260,7 +1268,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -1271,7 +1279,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -1282,7 +1290,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>7</v>
       </c>
@@ -1293,7 +1301,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -1304,7 +1312,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>3</v>
       </c>
@@ -1315,7 +1323,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>3</v>
       </c>
@@ -1326,7 +1334,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>3</v>
       </c>
@@ -1337,7 +1345,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>3</v>
       </c>
@@ -1348,7 +1356,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>3</v>
       </c>
@@ -1359,7 +1367,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>3</v>
       </c>
@@ -1370,7 +1378,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>3</v>
       </c>
@@ -1381,7 +1389,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>8</v>
       </c>
@@ -1392,7 +1400,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>8</v>
       </c>
@@ -1403,7 +1411,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>8</v>
       </c>
@@ -1414,7 +1422,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>8</v>
       </c>
@@ -1425,7 +1433,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>8</v>
       </c>
@@ -1436,7 +1444,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>8</v>
       </c>
@@ -1447,7 +1455,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>8</v>
       </c>
@@ -1458,7 +1466,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>9</v>
       </c>
@@ -1469,7 +1477,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>9</v>
       </c>
@@ -1480,7 +1488,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>9</v>
       </c>
@@ -1491,7 +1499,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>9</v>
       </c>
@@ -1502,7 +1510,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>9</v>
       </c>
@@ -1513,7 +1521,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>9</v>
       </c>
@@ -1524,7 +1532,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>9</v>
       </c>
@@ -1544,135 +1552,135 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E770ECA-E10C-4651-A068-F1B5FC905D1A}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="3">
         <v>1</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3">
         <v>15</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="3">
         <v>98</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="3">
         <v>24</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7">
+      <c r="B7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3">
         <v>322</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="3">
         <v>218</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="3">
         <v>823</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1682,6 +1690,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101004EB831025BF00641AE88F2A902AAAF1B" ma:contentTypeVersion="2" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="922787e71b43b1c3ae0f2ec30aa8cf0c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a01b58d8-c5db-4160-879c-9baa1e9d5116" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="549c965bef73b0ff34fc7fce22a81277" ns2:_="">
     <xsd:import namespace="a01b58d8-c5db-4160-879c-9baa1e9d5116"/>
@@ -1813,29 +1836,37 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2589810-7BFA-47D4-83A1-6AC043710CE2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E555F8B-86CD-499D-908D-6C46A60A7E3A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4F665F3-1E57-4CCF-A68E-CA487352D404}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4F665F3-1E57-4CCF-A68E-CA487352D404}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E555F8B-86CD-499D-908D-6C46A60A7E3A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2589810-7BFA-47D4-83A1-6AC043710CE2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="a01b58d8-c5db-4160-879c-9baa1e9d5116"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/inst_4.xlsx
+++ b/data/inst_4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TFG\flexible-vrp\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14B1F971-81CF-4CC3-A50C-7A87C9C76E4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14E060A3-44A5-42CB-83AA-5E1FE4718457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="180" windowWidth="20490" windowHeight="10740" xr2:uid="{5A598FCB-B967-4DAF-9410-AD9F1FA49DAC}"/>
+    <workbookView xWindow="11745" yWindow="1290" windowWidth="15375" windowHeight="8850" activeTab="2" xr2:uid="{5A598FCB-B967-4DAF-9410-AD9F1FA49DAC}"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="28">
   <si>
     <t>origin</t>
   </si>
@@ -795,8 +795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{118A7758-BA92-46A5-BE73-1AD0F0A01B68}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="F8:G8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1550,10 +1550,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E770ECA-E10C-4651-A068-F1B5FC905D1A}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1630,16 +1630,16 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C6" s="3">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1647,10 +1647,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" s="3">
-        <v>322</v>
+        <v>24</v>
       </c>
       <c r="D7" s="3">
         <v>0</v>
@@ -1661,10 +1661,10 @@
         <v>3</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" s="3">
-        <v>218</v>
+        <v>322</v>
       </c>
       <c r="D8" s="3">
         <v>0</v>
@@ -1675,12 +1675,26 @@
         <v>3</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="3">
+        <v>218</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C10" s="3">
         <v>823</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D10" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1690,21 +1704,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101004EB831025BF00641AE88F2A902AAAF1B" ma:contentTypeVersion="2" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="922787e71b43b1c3ae0f2ec30aa8cf0c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a01b58d8-c5db-4160-879c-9baa1e9d5116" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="549c965bef73b0ff34fc7fce22a81277" ns2:_="">
     <xsd:import namespace="a01b58d8-c5db-4160-879c-9baa1e9d5116"/>
@@ -1836,24 +1835,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E555F8B-86CD-499D-908D-6C46A60A7E3A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4F665F3-1E57-4CCF-A68E-CA487352D404}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2589810-7BFA-47D4-83A1-6AC043710CE2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1869,4 +1866,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4F665F3-1E57-4CCF-A68E-CA487352D404}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E555F8B-86CD-499D-908D-6C46A60A7E3A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/inst_4.xlsx
+++ b/data/inst_4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TFG\flexible-vrp\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://upm365-my.sharepoint.com/personal/alvaro_garcia_upm_es/Documents/investigacion/flexible_vrp/datos_ejecucion/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14E060A3-44A5-42CB-83AA-5E1FE4718457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A30384B4-10AA-4C9E-B54F-FF8E431F2326}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11745" yWindow="1290" windowWidth="15375" windowHeight="8850" activeTab="2" xr2:uid="{5A598FCB-B967-4DAF-9410-AD9F1FA49DAC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="2" xr2:uid="{5A598FCB-B967-4DAF-9410-AD9F1FA49DAC}"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="28">
   <si>
     <t>origin</t>
   </si>
@@ -131,17 +131,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -173,11 +166,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -796,7 +788,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -825,7 +817,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -898,7 +890,7 @@
         <v>24</v>
       </c>
       <c r="B12" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1550,337 +1542,183 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E770ECA-E10C-4651-A068-F1B5FC905D1A}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D7" sqref="D2:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3">
         <v>15</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="3">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
         <v>98</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="3">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
         <v>1</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="3">
-        <v>31</v>
-      </c>
-      <c r="D6" s="3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>44</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>24</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>322</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>218</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <v>823</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12">
         <v>3</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="3">
-        <v>24</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="3">
-        <v>322</v>
-      </c>
-      <c r="D8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="3">
-        <v>218</v>
-      </c>
-      <c r="D9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="3">
-        <v>823</v>
-      </c>
-      <c r="D10" s="3">
+      <c r="D12">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101004EB831025BF00641AE88F2A902AAAF1B" ma:contentTypeVersion="2" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="922787e71b43b1c3ae0f2ec30aa8cf0c">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a01b58d8-c5db-4160-879c-9baa1e9d5116" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="549c965bef73b0ff34fc7fce22a81277" ns2:_="">
-    <xsd:import namespace="a01b58d8-c5db-4160-879c-9baa1e9d5116"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="a01b58d8-c5db-4160-879c-9baa1e9d5116" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de contenido"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2589810-7BFA-47D4-83A1-6AC043710CE2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="a01b58d8-c5db-4160-879c-9baa1e9d5116"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4F665F3-1E57-4CCF-A68E-CA487352D404}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E555F8B-86CD-499D-908D-6C46A60A7E3A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/inst_4.xlsx
+++ b/data/inst_4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://upm365-my.sharepoint.com/personal/alvaro_garcia_upm_es/Documents/investigacion/flexible_vrp/datos_ejecucion/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TFG\flexible-vrp\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A30384B4-10AA-4C9E-B54F-FF8E431F2326}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7604E475-B049-4723-9EDE-D7FFEFB53727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="2" xr2:uid="{5A598FCB-B967-4DAF-9410-AD9F1FA49DAC}"/>
+    <workbookView xWindow="10245" yWindow="0" windowWidth="10245" windowHeight="10920" firstSheet="2" activeTab="2" xr2:uid="{5A598FCB-B967-4DAF-9410-AD9F1FA49DAC}"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="3" r:id="rId1"/>
@@ -1545,7 +1545,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D2:D7"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1698,7 +1698,7 @@
         <v>7</v>
       </c>
       <c r="C11">
-        <v>823</v>
+        <v>123</v>
       </c>
       <c r="D11">
         <v>0</v>

--- a/data/inst_4.xlsx
+++ b/data/inst_4.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TFG\flexible-vrp\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vrp_basic_mip\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7604E475-B049-4723-9EDE-D7FFEFB53727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EFD8FA0-D79D-4A02-9C01-3317E37EFEE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10245" yWindow="0" windowWidth="10245" windowHeight="10920" firstSheet="2" activeTab="2" xr2:uid="{5A598FCB-B967-4DAF-9410-AD9F1FA49DAC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{5A598FCB-B967-4DAF-9410-AD9F1FA49DAC}"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="42">
   <si>
     <t>origin</t>
   </si>
@@ -125,6 +125,48 @@
   </si>
   <si>
     <t>time</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>no_req_total</t>
+  </si>
+  <si>
+    <t>no_opt_total</t>
   </si>
 </sst>
 </file>
@@ -166,10 +208,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -785,18 +830,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{118A7758-BA92-46A5-BE73-1AD0F0A01B68}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -804,7 +849,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -812,7 +857,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
@@ -820,7 +865,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -828,7 +873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -836,7 +881,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -844,7 +889,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -852,7 +897,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -860,7 +905,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -868,7 +913,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -876,7 +921,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -885,12 +930,30 @@
         <v>17.857142857142858</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B12" s="2">
-        <v>6</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13">
+        <f>SUM(comp_quantity_inst1!C2:C7)</f>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14">
+        <f>SUM(comp_quantity_inst1!C8:C12)</f>
+        <v>690</v>
       </c>
     </row>
   </sheetData>
@@ -906,9 +969,9 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -919,7 +982,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -930,7 +993,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -941,7 +1004,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -952,7 +1015,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -963,7 +1026,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -974,7 +1037,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -985,7 +1048,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -996,7 +1059,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1007,7 +1070,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1018,7 +1081,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1029,7 +1092,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1040,7 +1103,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1051,7 +1114,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -1062,7 +1125,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -1073,7 +1136,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -1084,7 +1147,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -1095,7 +1158,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -1106,7 +1169,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -1117,7 +1180,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -1128,7 +1191,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -1139,7 +1202,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -1150,7 +1213,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -1161,7 +1224,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -1172,7 +1235,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -1183,7 +1246,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -1194,7 +1257,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -1205,7 +1268,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -1216,7 +1279,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -1227,7 +1290,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -1238,7 +1301,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -1249,7 +1312,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -1260,7 +1323,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -1271,7 +1334,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -1282,7 +1345,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>7</v>
       </c>
@@ -1293,7 +1356,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -1304,7 +1367,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>3</v>
       </c>
@@ -1315,7 +1378,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>3</v>
       </c>
@@ -1326,7 +1389,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>3</v>
       </c>
@@ -1337,7 +1400,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>3</v>
       </c>
@@ -1348,7 +1411,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>3</v>
       </c>
@@ -1359,7 +1422,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>3</v>
       </c>
@@ -1370,7 +1433,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>3</v>
       </c>
@@ -1381,7 +1444,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>8</v>
       </c>
@@ -1392,7 +1455,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>8</v>
       </c>
@@ -1403,7 +1466,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>8</v>
       </c>
@@ -1414,7 +1477,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>8</v>
       </c>
@@ -1425,7 +1488,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>8</v>
       </c>
@@ -1436,7 +1499,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>8</v>
       </c>
@@ -1447,7 +1510,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>8</v>
       </c>
@@ -1458,7 +1521,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>9</v>
       </c>
@@ -1469,7 +1532,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>9</v>
       </c>
@@ -1480,7 +1543,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>9</v>
       </c>
@@ -1491,7 +1554,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>9</v>
       </c>
@@ -1502,7 +1565,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>9</v>
       </c>
@@ -1513,7 +1576,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>9</v>
       </c>
@@ -1524,7 +1587,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>9</v>
       </c>
@@ -1542,180 +1605,216 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E770ECA-E10C-4651-A068-F1B5FC905D1A}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="E1" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="3">
         <v>1</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="E2" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3">
         <v>15</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4">
+      <c r="E3" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="3">
         <v>98</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5">
+      <c r="E4" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="E5" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C6">
-        <v>4</v>
-      </c>
-      <c r="D6">
+      <c r="C6" s="3">
+        <v>4</v>
+      </c>
+      <c r="D6" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="E6" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="3">
         <v>44</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8">
+      <c r="E7" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="3">
         <v>24</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="E8" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9">
+      <c r="B9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="3">
         <v>322</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="E9" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="3">
         <v>218</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="E10" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="3">
         <v>123</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="E11" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="3">
         <v>3</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="3">
         <v>0</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/data/inst_4.xlsx
+++ b/data/inst_4.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vrp_basic_mip\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TFG\flexible-vrp\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EFD8FA0-D79D-4A02-9C01-3317E37EFEE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7604E475-B049-4723-9EDE-D7FFEFB53727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{5A598FCB-B967-4DAF-9410-AD9F1FA49DAC}"/>
+    <workbookView xWindow="10245" yWindow="0" windowWidth="10245" windowHeight="10920" firstSheet="2" activeTab="2" xr2:uid="{5A598FCB-B967-4DAF-9410-AD9F1FA49DAC}"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="28">
   <si>
     <t>origin</t>
   </si>
@@ -125,48 +125,6 @@
   </si>
   <si>
     <t>time</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>J</t>
-  </si>
-  <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>no_req_total</t>
-  </si>
-  <si>
-    <t>no_opt_total</t>
   </si>
 </sst>
 </file>
@@ -208,13 +166,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -830,18 +785,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{118A7758-BA92-46A5-BE73-1AD0F0A01B68}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:A14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -849,7 +804,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -857,7 +812,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
@@ -865,7 +820,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -873,7 +828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -881,7 +836,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -889,7 +844,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -897,7 +852,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -905,7 +860,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -913,7 +868,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -921,7 +876,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -930,30 +885,12 @@
         <v>17.857142857142858</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B12" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13">
-        <f>SUM(comp_quantity_inst1!C2:C7)</f>
-        <v>163</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14">
-        <f>SUM(comp_quantity_inst1!C8:C12)</f>
-        <v>690</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -969,9 +906,9 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -982,7 +919,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -993,7 +930,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1004,7 +941,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1015,7 +952,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1026,7 +963,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1037,7 +974,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1048,7 +985,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1059,7 +996,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1070,7 +1007,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1081,7 +1018,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1092,7 +1029,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1103,7 +1040,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1114,7 +1051,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -1125,7 +1062,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -1136,7 +1073,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -1147,7 +1084,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -1158,7 +1095,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -1169,7 +1106,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -1180,7 +1117,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -1191,7 +1128,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -1202,7 +1139,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -1213,7 +1150,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -1224,7 +1161,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -1235,7 +1172,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -1246,7 +1183,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -1257,7 +1194,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -1268,7 +1205,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -1279,7 +1216,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -1290,7 +1227,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -1301,7 +1238,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -1312,7 +1249,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -1323,7 +1260,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -1334,7 +1271,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -1345,7 +1282,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>7</v>
       </c>
@@ -1356,7 +1293,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -1367,7 +1304,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>3</v>
       </c>
@@ -1378,7 +1315,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>3</v>
       </c>
@@ -1389,7 +1326,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>3</v>
       </c>
@@ -1400,7 +1337,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>3</v>
       </c>
@@ -1411,7 +1348,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>3</v>
       </c>
@@ -1422,7 +1359,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>3</v>
       </c>
@@ -1433,7 +1370,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>3</v>
       </c>
@@ -1444,7 +1381,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>8</v>
       </c>
@@ -1455,7 +1392,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>8</v>
       </c>
@@ -1466,7 +1403,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>8</v>
       </c>
@@ -1477,7 +1414,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>8</v>
       </c>
@@ -1488,7 +1425,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>8</v>
       </c>
@@ -1499,7 +1436,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>8</v>
       </c>
@@ -1510,7 +1447,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>8</v>
       </c>
@@ -1521,7 +1458,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>9</v>
       </c>
@@ -1532,7 +1469,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>9</v>
       </c>
@@ -1543,7 +1480,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>9</v>
       </c>
@@ -1554,7 +1491,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>9</v>
       </c>
@@ -1565,7 +1502,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>9</v>
       </c>
@@ -1576,7 +1513,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>9</v>
       </c>
@@ -1587,7 +1524,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>9</v>
       </c>
@@ -1605,216 +1542,180 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E770ECA-E10C-4651-A068-F1B5FC905D1A}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="3">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="3" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3">
         <v>15</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3">
         <v>1</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="3">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
         <v>98</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4">
         <v>1</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="3">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
         <v>1</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5">
         <v>1</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="3">
-        <v>4</v>
-      </c>
-      <c r="D6" s="3">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
         <v>1</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3" t="s">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7">
         <v>44</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7">
         <v>1</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="3">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8">
         <v>24</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8">
         <v>0</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="3">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9">
         <v>322</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9">
         <v>0</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="3">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10">
         <v>218</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10">
         <v>0</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="3" t="s">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11">
         <v>123</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11">
         <v>0</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="3" t="s">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12">
         <v>3</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12">
         <v>0</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/data/inst_4.xlsx
+++ b/data/inst_4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TFG\flexible-vrp\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\flexible-vrp\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7604E475-B049-4723-9EDE-D7FFEFB53727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{461696CB-5312-4198-A3A0-5550ABB5EC41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10245" yWindow="0" windowWidth="10245" windowHeight="10920" firstSheet="2" activeTab="2" xr2:uid="{5A598FCB-B967-4DAF-9410-AD9F1FA49DAC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{5A598FCB-B967-4DAF-9410-AD9F1FA49DAC}"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="30">
   <si>
     <t>origin</t>
   </si>
@@ -125,6 +125,12 @@
   </si>
   <si>
     <t>time</t>
+  </si>
+  <si>
+    <t>no_req_total</t>
+  </si>
+  <si>
+    <t>no_opt_total</t>
   </si>
 </sst>
 </file>
@@ -785,18 +791,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{118A7758-BA92-46A5-BE73-1AD0F0A01B68}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -804,7 +810,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -812,7 +818,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
@@ -820,7 +826,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -828,7 +834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -836,7 +842,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -844,7 +850,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -852,7 +858,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -860,7 +866,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -868,7 +874,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -876,7 +882,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -885,12 +891,28 @@
         <v>17.857142857142858</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B12" s="2">
         <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14">
+        <v>690</v>
       </c>
     </row>
   </sheetData>
@@ -906,9 +928,9 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -919,7 +941,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -930,7 +952,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -941,7 +963,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -952,7 +974,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -963,7 +985,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -974,7 +996,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -985,7 +1007,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -996,7 +1018,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1007,7 +1029,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1018,7 +1040,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1029,7 +1051,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1040,7 +1062,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1051,7 +1073,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -1062,7 +1084,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -1073,7 +1095,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -1084,7 +1106,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -1095,7 +1117,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -1106,7 +1128,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -1117,7 +1139,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -1128,7 +1150,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -1139,7 +1161,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -1150,7 +1172,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -1161,7 +1183,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -1172,7 +1194,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -1183,7 +1205,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -1194,7 +1216,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -1205,7 +1227,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -1216,7 +1238,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -1227,7 +1249,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -1238,7 +1260,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -1249,7 +1271,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -1260,7 +1282,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -1271,7 +1293,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -1282,7 +1304,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>7</v>
       </c>
@@ -1293,7 +1315,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -1304,7 +1326,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>3</v>
       </c>
@@ -1315,7 +1337,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>3</v>
       </c>
@@ -1326,7 +1348,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>3</v>
       </c>
@@ -1337,7 +1359,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>3</v>
       </c>
@@ -1348,7 +1370,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>3</v>
       </c>
@@ -1359,7 +1381,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>3</v>
       </c>
@@ -1370,7 +1392,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>3</v>
       </c>
@@ -1381,7 +1403,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>8</v>
       </c>
@@ -1392,7 +1414,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>8</v>
       </c>
@@ -1403,7 +1425,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>8</v>
       </c>
@@ -1414,7 +1436,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>8</v>
       </c>
@@ -1425,7 +1447,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>8</v>
       </c>
@@ -1436,7 +1458,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>8</v>
       </c>
@@ -1447,7 +1469,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>8</v>
       </c>
@@ -1458,7 +1480,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>9</v>
       </c>
@@ -1469,7 +1491,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>9</v>
       </c>
@@ -1480,7 +1502,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>9</v>
       </c>
@@ -1491,7 +1513,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>9</v>
       </c>
@@ -1502,7 +1524,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>9</v>
       </c>
@@ -1513,7 +1535,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>9</v>
       </c>
@@ -1524,7 +1546,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>9</v>
       </c>
@@ -1544,13 +1566,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E770ECA-E10C-4651-A068-F1B5FC905D1A}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1564,7 +1586,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1578,7 +1600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1592,7 +1614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1606,7 +1628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1620,7 +1642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1634,7 +1656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1648,7 +1670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1662,7 +1684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -1676,7 +1698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -1690,7 +1712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -1704,7 +1726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>5</v>
       </c>
